--- a/tools_tasks.xlsx
+++ b/tools_tasks.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="403">
   <si>
     <t xml:space="preserve">Пуансоны для новой модели</t>
   </si>
@@ -472,6 +472,850 @@
   </si>
   <si>
     <t xml:space="preserve">КП 241129-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Штампы, пуансоны и ножи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фабрика Алюминиевого Профиля</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Получить заявку на ножи. Есть заявка. передал в ОЗ. Отдал КП. узнать решение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28386.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стоимость приняли во внимание. Заказа не будет, приценились</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пуансоны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Получить заявку на пуансоны на пробу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подготавливает список на проработку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инструмент</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СторХан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Получить заявки, чертежи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Получить заявки по: Ножам для гильотины, Дисковым ножам, Остастке для штампа перфорации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Матрицы и пуансоны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КП согласовано, Довести до заказа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Денис пока разгребает срочные заявки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инструмент, направляющие, пружины</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проработка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чебоксарский электроаппаратный завод</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Профильный инструмент</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Получить заявку на твердоспдавный инструмент</t>
+  </si>
+  <si>
+    <t xml:space="preserve">По собирают заявки с цехов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГК АСП ООО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пуансоны по чертежу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обновить цены и срок на инструмент, отдать КП, узнать решение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На паузе пока. Возможно на декабрь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метупак</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Матрицы пуансоны по чертежу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Узнать дату запуска в работу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Меняют юр лицо. Пока на паузе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Запрос на пуансонодержатель и крышку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕПК Волжский</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Получить 3D модели у заказчика.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нет 3d модели. Модели не будет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ножи для гильотины</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЭЛЬМАШ УЭТМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Получить обратную связь по КП. Продать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">После закрытия вопроса по рекламации. 50% закрыли</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кировский завод по обработке цветных металлов (КЗОЦМ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проработать потребность. Просчитать КП и сроки. Закупка возможна через ТП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Открыли переторжку без нас. Основание материал не по ГОСТ. Написал им письмо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инструмент (рекламация)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Один пуансон изготовлен и едет а СПб. 50% закрыли
+По второму нет уточнений от Дубровского</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СТИЛКЭП г. Киров</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оснастка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">выявить перспектиную номенклатуру</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 прессов, 50-60 штампов. Делают перфорированный крепеж.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Комплектующие к ТПА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 ТПА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Командировка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СторХан, Тракс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Командировка Москва</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Согласовываю</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Веста, Квалитет, КЗОЦМ, СтилКЭп</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Командировка Киров</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Переиграли на декабрь. НА неделе 02-06 декабря</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МетаПласт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проработать, узнать сколько ТПА, что и где берут, выйти на тех. спец-та и снабжение, провести презентацию</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УРАЛЭЛЕКТРОМЕДЬ АО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проработать, узнать сколько и какое оборудование, что и где берут ЗИП, выйти на тех. спец-та и снабжение, провести презентацию</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не устроили сроки на инструмент по КП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инструмент (Пуансоны)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Есть потребность на пуансоны. Отдал на расценку в ОЗ. КП отдал. Обратной связи нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТД ЭНЕРГОН РУС ООО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инструментальные пружины</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Взять инфо и контакты у Андрея и довести сделку до закупки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На паузе. Переключились на другие задачи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Газовые пружины</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Борисовский завод Металлист</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отдал КП на газовые пружины. Стоимость устроила. Узнать когда будут оплачитать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143408.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заявка на паузе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инструмент по чертежу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОМТЕЛЭНЕРГО ООО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отдать КП. Получить обратную связь по КП. Узнать дату приобретения.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отправил Счет. СА ответил, что возможно внесут корректировки по твердости. Нет связи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пуансон и Матрица по чертежу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УРАЛКАБЕЛЬ АО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Получить обратную связь по КП. Узнать дату приобретения.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143451.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нет обратной связи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потенциальный клиент</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проработать. Узнать какое оборудование есть.
+Его количество, Что и где приобретают. Выяснить перспективную номенклатуру. Взять контакты тех. спец-ов и закупок. Провести презентацию.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Посещение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Согласовать визит</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На неделе 02-06 декабря</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Запрос ШВП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Запрос ШВП по оси Х HIWIN 1R32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обновить КП (стоимость и сроки). Отдал КП. Жду ответ. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нет возможности изготовить</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Договор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Согласовать условия работы. Подписать договор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тепловое Оборудование</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инструмент и направляющие</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Получить заявку на направляющие или инструмент</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пока нет потребности для проработки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нож отрезной SMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФХО (ЗХО)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отправил Счет. Узнать когда оплата. Заключаем договор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7916.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Договор подписан. Ждут денег для заказа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наладить контакт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СААЗ Комплект
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Созвониться, узнать потребности, получить заявку.
+Выпускают телескопические стойки, амортизаторы, газовые упоры
+Ответили, что общатся необходимо с Елисеевым, заболел. перезвонить </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Елисеев Владимир Викторович
+инстр. цех (отвечает за детали штампов)
+8 (49156) 53-00-1
+8 (49156) 53-218
+Игорь Викторович Колданин
+зам. Елисеева
+ Поликарпов Сергей Васильевич
+ Тех. Директор
+8 910 643 05 92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ПАО «ОСВАР»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Созвониться, узнать потребности, получить заявку.
+Переговорил с гл. конструктором Зиминым. Он ответил, что необходимо связаться с гл. технологом (Светлана Викторовна).  Светлана попросила направить презентацию.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.oat-group.ru/predpriyatiyagruppyosvar/
++7 903 645 40 58
+osvar@oat-group.ru
+Производство автомобильных светотехнических приборов и автоэлектроарматуры</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наладить контакт от Додиес</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+УАЗ-ТЕХИНСТРУМЕНТ ООО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Созвониться с закупщицей. Выяснить потребность на комплектующие к новым штампам. Узнать контакты гл. конструктора.
+Направить каталоги(Презентацию) Наталье Ивановне. Потребнсть будет в начале ноября. созвонимся 06.11. Заявки еще не сформированы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Штампов на 100 млн. руб. будут делать на Автоваз
+Артемова Наталья Ивановна
+Начальник отдела закупок
+Раб.тел.(8422) 24-00-90 доб.2-95-67
+Сот .тел.+7 9603660285
+Отправил каталоги. Связь на сл. неделе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Есть запрос на пружины. Есть уточнения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗИП к ТПА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Плантик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проработать номенклатуру для поставки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ближе к декабрю набрать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инструмент для КПП (заявка на кластерный инструмент)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">рассчитать стоимость, отдать КП Узнать что думают.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14547.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кластер пока на паузе. Нет ответа от технолога</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КЗСД </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инструмент (Потребность)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Созвон перед НГ и в конце января. Узнать потребность и какой зазор будем делать на матрицах.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Направляюще</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отправил КП, Узнать решение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3103.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Решение будет к 20.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инструмент для листогиба</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жалюзи на листогиб</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отдал КП. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8500.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На паузе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Приправочные ленты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АНВИТА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На проработке. Оригинал дорого. Проработка китайских</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дорого.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Направляющие и инст. пружины</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потребность. Отправлена презентация. Рассмотрят и направят заявку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пока нет заявки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Направляющие б/г и газ. пружины SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Веста</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Есть заявка. Отдать КП. Получить обратную связь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35281.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Все в работе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нож и Электрод</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отправить КП. Узнать решение. Заключаем договор по первой сделке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Согласовывают. Есть проблемы с бюджетом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проволока</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Киришский завод полимерных конструкций (КЗПК)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Запрос на проволоку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отправлено два счета на проволоку из наличия по 5кг и по 8 кг. Узнать что с оплатой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12471.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отмена. Нет денег</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Центрирующий пин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гестамп</t>
+  </si>
+  <si>
+    <t xml:space="preserve">на расценке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На расценке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Планки по чертежу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СОЮЗ ОСНАСТКА ООО НПО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отдать КП. Получить обратную связь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ждут ответ от заказчика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Никелевые кольца</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обзвон заказчика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Позвонить заказчику, узнать потребности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧувашТоргТехника</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нет ответа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ролики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КЭЗ КВТ ООО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заказано</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Актуальность КП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Световые Технологии</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Узнать какие КП и когда пойдут в работу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пуансоны и вставки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">газ. пружины SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Направляющин и пружины</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТПФ Бастион-Пром</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сепараторы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заказано на др. юр. лицо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Узлы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пружины</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДЗМИ ООО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пуансоны для барабанов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Расценить, выставить КП.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ю-МЕТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64076.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">получить обратную связь по КП от Чухряева</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зип на штамп</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Исеть </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Созвониться с технологом и обсудить покупку пуансонов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">получить обратную связь от Сергея Поливцева</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кёниг модуло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">получить обратную связь по КП от Евгенич Четверова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Матрицы мат CPM M4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Матрицы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Адаптерная плита</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СМЦ Всеволожск</t>
+  </si>
+  <si>
+    <t xml:space="preserve">получить обратную связь по КП от Екатерины Курошиной</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ползушки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Встреча</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Провести испытание дисковых ножей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Согласовать оплату</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сделать отчет по встрече</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прижимы из полиуретана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">получить обратную связь по КП от Кривущева М</t>
+  </si>
+  <si>
+    <t xml:space="preserve">встреча</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Договориться о встрече</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Северная заря</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Созвониться с Шевелевой Н</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛАД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">и Гнездиловым</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗИП по Бом-листам</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сверить спец-ю и чертежи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Детали штампа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПГС-К</t>
+  </si>
+  <si>
+    <t xml:space="preserve">получить обратную связь по КП от Вяльцева</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Расценить сборку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГП и отлипатели 231107-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЙ ЭЙЧ ПИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31591.56 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">получить обратную связь по КП от Хохлова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инстрмент для вырубки 241009-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65369.88 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">получить обратную связь по КП от Стебеневой О. или Хохова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Позвонить 15.10.2024 Хохлову по реализации проекта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сопло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9563.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">получить обратную связь по КП от Стебеневой О.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Компл для модерн штампа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Держатель инструмента</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аконит Урал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33308.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">получить обратную связь по КП от Чулпан</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Толкатели</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АВТОСВЕТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">получить обратную связь по КП от Эдуарда</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Метизы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">получить обратную связь по КП от Калистратова ВВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">заполнить техническое предложение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инструмент зип</t>
+  </si>
+  <si>
+    <t xml:space="preserve">получить обратную связь по КП от Шевелевой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Техпром-НГС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8117.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">получить обратную связь по КП от </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Направляющие AGATHON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Накреватели HRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шрекера HARTING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гибка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Расценить, выставить КП </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ММЗ (Махачкала)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42055.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">получить обратную связь по КП от Мурада нач. произ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Романов БАЗ Авто</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7406.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">получить обратную связь по КП от Сергея</t>
+  </si>
+  <si>
+    <t xml:space="preserve">организовать встречу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выяснение потребности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СТ Асист ООО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Созвониться с заказчиком, узнать есть ли актуальные заявки, что можем поставлять помимо газовых пружин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Камский настил / ТЭМПО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">получить обратную связь по КП от Эльмиры</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27770.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ждем оплаты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пуансоны 1700-8770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕВЕРНАЯ АВРОРА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">получить обратную связь по КП от Бургановым</t>
+  </si>
+  <si>
+    <t xml:space="preserve">заявка ПКИ2  №3111 Крепеж</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Импульс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">получить обратную связь по КП отТарачева Дмитрия</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> детали</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВЕТКОМПЛЕКТ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">получить обратную связь по КП от</t>
   </si>
 </sst>
 </file>
@@ -560,7 +1404,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -571,6 +1415,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -765,10 +1613,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I220"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C190" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C207" activeCellId="0" sqref="C207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1955,6 +2803,3613 @@
         <v>125</v>
       </c>
     </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>783000</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>3600000</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I67" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>637000</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>1302000</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I71" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="H76" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I76" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="H78" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I78" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="H79" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I79" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="H80" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="H81" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="H82" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="H83" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I83" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="H84" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C85" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="H85" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="H86" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I86" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="H87" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="G88" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H88" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I88" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="H89" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>7107</v>
+      </c>
+      <c r="G90" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H90" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I90" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="H91" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="G92" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H92" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I92" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="H93" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="H94" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I94" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="H95" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="H96" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I96" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="H97" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D98" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="H98" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I98" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="H99" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="G100" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H100" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I100" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H101" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H102" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H103" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H104" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="H105" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="H106" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="H107" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="H108" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="H109" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I109" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="H110" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="F111" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="G111" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H111" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I111" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="H112" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="H113" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="H114" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="F115" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="G115" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H115" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I115" s="0" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D116" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="H116" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="F117" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="G117" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H117" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I117" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="H118" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D119" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="H119" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I119" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="H120" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="H121" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I121" s="0" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D122" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="H122" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C123" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D123" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="G123" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H123" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I123" s="0" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D124" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="H124" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D125" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="H125" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I125" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D126" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="H126" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="C127" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D127" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="F127" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="G127" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H127" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I127" s="0" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C128" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D128" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="H128" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="C129" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D129" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="H129" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I129" s="0" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="C130" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D130" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="H130" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C131" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D131" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="H131" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I131" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="C132" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D132" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="H132" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C133" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D133" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="H133" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I133" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="C134" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D134" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="H134" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I134" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="C135" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D135" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E135" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="H135" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C136" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D136" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E136" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="F136" s="0" t="n">
+        <v>6200</v>
+      </c>
+      <c r="G136" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H136" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I136" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="C137" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D137" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E137" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="H137" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="C138" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D138" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E138" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="H138" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="C139" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D139" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E139" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="H139" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C140" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D140" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E140" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="F140" s="0" t="n">
+        <v>12900</v>
+      </c>
+      <c r="G140" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H140" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="I140" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C141" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D141" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E141" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="H141" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C142" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D142" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E142" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="F142" s="0" t="n">
+        <v>24000</v>
+      </c>
+      <c r="G142" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H142" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I142" s="0" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="C143" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D143" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E143" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="H143" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C144" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D144" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E144" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="F144" s="0" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G144" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H144" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I144" s="0" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C145" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D145" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E145" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="F145" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G145" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H145" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I145" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C146" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D146" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E146" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="F146" s="0" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G146" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H146" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I146" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="C147" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D147" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E147" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="H147" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C148" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D148" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E148" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="F148" s="0" t="n">
+        <v>9180</v>
+      </c>
+      <c r="G148" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H148" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I148" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="C149" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D149" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E149" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="F149" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="G149" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H149" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="C150" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D150" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E150" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="H150" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="C151" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D151" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E151" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="F151" s="0" t="n">
+        <v>393000</v>
+      </c>
+      <c r="G151" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H151" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="C152" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D152" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E152" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="F152" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H152" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="C153" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D153" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E153" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="H153" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="C154" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D154" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E154" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="F154" s="0" t="n">
+        <v>42420</v>
+      </c>
+      <c r="G154" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H154" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="C155" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D155" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E155" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="H155" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="C156" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D156" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E156" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="F156" s="0" t="n">
+        <v>418000</v>
+      </c>
+      <c r="G156" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H156" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="C157" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D157" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E157" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="H157" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="C158" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D158" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E158" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="F158" s="0" t="n">
+        <v>5760000</v>
+      </c>
+      <c r="G158" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H158" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="C159" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D159" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E159" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="H159" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C160" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D160" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E160" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="F160" s="0" t="n">
+        <v>66000</v>
+      </c>
+      <c r="H160" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="C161" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D161" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E161" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="H161" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="C162" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D162" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E162" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="H162" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C163" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D163" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E163" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="H163" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="C164" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D164" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E164" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="H164" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C165" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D165" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E165" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="H165" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C166" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D166" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E166" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="H166" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="C167" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D167" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E167" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="H167" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C168" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D168" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E168" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="H168" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="C169" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D169" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E169" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="H169" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="C170" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D170" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E170" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="H170" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C171" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D171" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E171" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="H171" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="C172" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D172" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E172" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="H172" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="C173" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D173" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E173" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="H173" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="C174" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D174" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E174" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="H174" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C175" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D175" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E175" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="F175" s="0" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="G175" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H175" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="C176" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D176" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E176" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="H176" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="C177" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D177" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E177" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="H177" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C178" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D178" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E178" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="F178" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="H178" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="C179" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D179" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E179" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="H179" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C180" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D180" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E180" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="F180" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="G180" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H180" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="C181" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D181" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E181" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="H181" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="C182" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D182" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E182" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="H182" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C183" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D183" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E183" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="F183" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="G183" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H183" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="C184" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D184" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E184" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="H184" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C185" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D185" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E185" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="F185" s="0" t="n">
+        <v>95832</v>
+      </c>
+      <c r="H185" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="C186" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D186" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E186" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="H186" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C187" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D187" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E187" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="F187" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="G187" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H187" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="C188" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D188" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E188" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="H188" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C189" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D189" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E189" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="F189" s="0" t="n">
+        <v>37000</v>
+      </c>
+      <c r="G189" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H189" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="C190" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D190" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E190" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="H190" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="C191" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D191" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E191" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="H191" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C192" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D192" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E192" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="F192" s="0" t="n">
+        <v>144000</v>
+      </c>
+      <c r="G192" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H192" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="C193" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D193" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E193" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="H193" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="C194" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D194" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E194" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="H194" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C195" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D195" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E195" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="F195" s="0" t="n">
+        <v>309935</v>
+      </c>
+      <c r="G195" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H195" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="C196" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D196" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E196" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="H196" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C197" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D197" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E197" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="F197" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="G197" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H197" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="C198" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D198" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E198" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="H198" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C199" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D199" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E199" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="F199" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G199" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H199" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="C200" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D200" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E200" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="H200" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C201" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D201" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E201" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="F201" s="0" t="n">
+        <v>27000</v>
+      </c>
+      <c r="G201" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H201" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="C202" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D202" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E202" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="H202" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C203" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D203" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E203" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="F203" s="0" t="n">
+        <v>13200</v>
+      </c>
+      <c r="G203" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H203" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="C204" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D204" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E204" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="H204" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="C205" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D205" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E205" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="F205" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="G205" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H205" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="C206" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D206" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E206" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="H206" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="C207" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D207" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E207" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="F207" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="G207" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H207" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C208" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D208" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E208" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="H208" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="C209" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D209" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E209" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="H209" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C210" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D210" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E210" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="H210" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="C211" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D211" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E211" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="H211" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="C212" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D212" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E212" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="H212" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="C213" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D213" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E213" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="F213" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="G213" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H213" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="C214" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D214" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E214" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="F214" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="G214" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H214" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="C215" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D215" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E215" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="G215" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H215" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C216" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D216" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E216" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="G216" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H216" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="C217" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D217" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E217" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="G217" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H217" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="C218" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D218" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E218" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="H218" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B219" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="C219" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D219" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E219" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="G219" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H219" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="C220" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D220" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E220" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="G220" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H220" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
